--- a/src/main/resources/students.xlsx
+++ b/src/main/resources/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\excel-in-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A9DDA4-4E08-4727-8709-9AC80DE9C4CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5378D-5B73-4943-B896-5607D6461D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1668" windowWidth="17280" windowHeight="8964" xr2:uid="{9956CA0F-BB44-4644-9BE6-B04AE59A9B8F}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
